--- a/templates/RSTK-9121_SYDATAT-LocationToLocation.xlsx
+++ b/templates/RSTK-9121_SYDATAT-LocationToLocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4241C7-CB60-4EE2-800B-4B75906E6060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DAD32E-9B73-40DD-8375-97B3B464C9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AAD229B4-EC82-43D3-8B6F-DC67705348E6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="133">
   <si>
     <t>To Loc ID</t>
   </si>
@@ -785,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCE164E-2837-489B-8CC2-3B2D4E8479B3}">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="Q50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3269,19 +3269,16 @@
         <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s">
         <v>110</v>
@@ -3290,22 +3287,19 @@
         <v>107</v>
       </c>
       <c r="L50" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N50" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O50" t="s">
         <v>110</v>
       </c>
       <c r="P50">
         <v>1</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,22 +3316,19 @@
         <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
         <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K51" t="s">
         <v>107</v>
@@ -3346,16 +3337,16 @@
         <v>108</v>
       </c>
       <c r="M51" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="N51" t="s">
+        <v>67</v>
       </c>
       <c r="O51" t="s">
         <v>110</v>
       </c>
       <c r="P51">
-        <v>30.545999999999999</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,10 +3384,10 @@
         <v>108</v>
       </c>
       <c r="M52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O52" t="s">
         <v>110</v>
@@ -3440,16 +3431,16 @@
         <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O53" t="s">
         <v>110</v>
       </c>
       <c r="P53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3463,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -3487,10 +3478,10 @@
         <v>108</v>
       </c>
       <c r="M54" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O54" t="s">
         <v>110</v>
@@ -3519,7 +3510,7 @@
         <v>108</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H55" t="s">
         <v>52</v>
@@ -3534,16 +3525,16 @@
         <v>108</v>
       </c>
       <c r="M55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O55" t="s">
         <v>110</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3557,7 @@
         <v>108</v>
       </c>
       <c r="G56" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H56" t="s">
         <v>52</v>
@@ -3581,10 +3572,10 @@
         <v>108</v>
       </c>
       <c r="M56" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O56" t="s">
         <v>110</v>
@@ -3613,7 +3604,7 @@
         <v>108</v>
       </c>
       <c r="G57" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H57" t="s">
         <v>52</v>
@@ -3628,16 +3619,16 @@
         <v>108</v>
       </c>
       <c r="M57" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O57" t="s">
         <v>110</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3651,7 @@
         <v>108</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H58" t="s">
         <v>52</v>
@@ -3675,10 +3666,10 @@
         <v>108</v>
       </c>
       <c r="M58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O58" t="s">
         <v>110</v>
@@ -3707,7 +3698,7 @@
         <v>108</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H59" t="s">
         <v>52</v>
@@ -3722,16 +3713,16 @@
         <v>108</v>
       </c>
       <c r="M59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O59" t="s">
         <v>110</v>
       </c>
       <c r="P59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,34 +3742,34 @@
         <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K60" t="s">
         <v>107</v>
       </c>
       <c r="L60" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O60" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,7 +3792,7 @@
         <v>108</v>
       </c>
       <c r="G61" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H61" t="s">
         <v>52</v>
@@ -3816,10 +3807,7 @@
         <v>108</v>
       </c>
       <c r="M61" t="s">
-        <v>119</v>
-      </c>
-      <c r="N61" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="O61" t="s">
         <v>110</v>
@@ -3845,31 +3833,28 @@
         <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="K62" t="s">
         <v>107</v>
       </c>
       <c r="L62" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="M62" t="s">
-        <v>130</v>
-      </c>
-      <c r="N62" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="O62" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -3910,7 +3895,7 @@
         <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O63" t="s">
         <v>110</v>
@@ -3954,13 +3939,13 @@
         <v>108</v>
       </c>
       <c r="M64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O64" t="s">
         <v>110</v>
       </c>
       <c r="P64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -3983,7 +3968,7 @@
         <v>108</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H65" t="s">
         <v>52</v>
@@ -3998,7 +3983,7 @@
         <v>108</v>
       </c>
       <c r="M65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O65" t="s">
         <v>110</v>
@@ -4027,7 +4012,7 @@
         <v>108</v>
       </c>
       <c r="G66" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H66" t="s">
         <v>52</v>
@@ -4042,13 +4027,13 @@
         <v>108</v>
       </c>
       <c r="M66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O66" t="s">
         <v>110</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4071,7 +4056,7 @@
         <v>108</v>
       </c>
       <c r="G67" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H67" t="s">
         <v>52</v>
@@ -4086,7 +4071,7 @@
         <v>108</v>
       </c>
       <c r="M67" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O67" t="s">
         <v>110</v>
@@ -4115,7 +4100,7 @@
         <v>108</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H68" t="s">
         <v>52</v>
@@ -4130,13 +4115,13 @@
         <v>108</v>
       </c>
       <c r="M68" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O68" t="s">
         <v>110</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4159,7 +4144,7 @@
         <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H69" t="s">
         <v>52</v>
@@ -4174,7 +4159,7 @@
         <v>108</v>
       </c>
       <c r="M69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O69" t="s">
         <v>110</v>
@@ -4203,7 +4188,7 @@
         <v>108</v>
       </c>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H70" t="s">
         <v>52</v>
@@ -4218,13 +4203,13 @@
         <v>108</v>
       </c>
       <c r="M70" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O70" t="s">
         <v>110</v>
       </c>
       <c r="P70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4244,31 +4229,31 @@
         <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H71" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J71" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K71" t="s">
         <v>107</v>
       </c>
       <c r="L71" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M71" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="O71" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4285,16 +4270,19 @@
         <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F72" t="s">
         <v>108</v>
       </c>
       <c r="G72" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="H72">
+        <v>2007</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>110</v>
@@ -4306,7 +4294,10 @@
         <v>108</v>
       </c>
       <c r="M72" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="N72" t="s">
+        <v>57</v>
       </c>
       <c r="O72" t="s">
         <v>110</v>
@@ -4329,34 +4320,40 @@
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F73" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H73" t="s">
         <v>55</v>
       </c>
+      <c r="I73" t="s">
+        <v>56</v>
+      </c>
       <c r="J73" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="K73" t="s">
         <v>107</v>
       </c>
       <c r="L73" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="N73" t="s">
+        <v>55</v>
       </c>
       <c r="O73" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4379,13 +4376,13 @@
         <v>108</v>
       </c>
       <c r="G74" t="s">
-        <v>111</v>
-      </c>
-      <c r="H74">
-        <v>2007</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H74" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" t="s">
+        <v>56</v>
       </c>
       <c r="J74" t="s">
         <v>110</v>
@@ -4397,10 +4394,10 @@
         <v>108</v>
       </c>
       <c r="M74" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="N74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O74" t="s">
         <v>110</v>
@@ -4447,16 +4444,16 @@
         <v>108</v>
       </c>
       <c r="M75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N75" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O75" t="s">
         <v>110</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4497,10 +4494,10 @@
         <v>108</v>
       </c>
       <c r="M76" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O76" t="s">
         <v>110</v>
@@ -4529,7 +4526,7 @@
         <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H77" t="s">
         <v>55</v>
@@ -4547,16 +4544,16 @@
         <v>108</v>
       </c>
       <c r="M77" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O77" t="s">
         <v>110</v>
       </c>
       <c r="P77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4579,7 +4576,7 @@
         <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H78" t="s">
         <v>55</v>
@@ -4597,16 +4594,16 @@
         <v>108</v>
       </c>
       <c r="M78" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N78" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O78" t="s">
         <v>110</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4629,7 +4626,7 @@
         <v>108</v>
       </c>
       <c r="G79" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H79" t="s">
         <v>55</v>
@@ -4647,16 +4644,16 @@
         <v>108</v>
       </c>
       <c r="M79" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O79" t="s">
         <v>110</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4679,7 +4676,7 @@
         <v>108</v>
       </c>
       <c r="G80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H80" t="s">
         <v>55</v>
@@ -4697,16 +4694,16 @@
         <v>108</v>
       </c>
       <c r="M80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N80" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="O80" t="s">
         <v>110</v>
       </c>
       <c r="P80">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4729,7 +4726,7 @@
         <v>108</v>
       </c>
       <c r="G81" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H81" t="s">
         <v>55</v>
@@ -4747,16 +4744,16 @@
         <v>108</v>
       </c>
       <c r="M81" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O81" t="s">
         <v>110</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4776,10 +4773,10 @@
         <v>115</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H82" t="s">
         <v>55</v>
@@ -4788,25 +4785,25 @@
         <v>56</v>
       </c>
       <c r="J82" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K82" t="s">
         <v>107</v>
       </c>
       <c r="L82" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M82" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O82" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -4829,13 +4826,13 @@
         <v>108</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
-      </c>
-      <c r="H83" t="s">
-        <v>55</v>
-      </c>
-      <c r="I83" t="s">
-        <v>56</v>
+        <v>111</v>
+      </c>
+      <c r="H83">
+        <v>2007</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>110</v>
@@ -4847,16 +4844,13 @@
         <v>108</v>
       </c>
       <c r="M83" t="s">
-        <v>119</v>
-      </c>
-      <c r="N83" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="O83" t="s">
         <v>110</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -4876,10 +4870,10 @@
         <v>115</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="G84" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H84" t="s">
         <v>55</v>
@@ -4888,22 +4882,19 @@
         <v>56</v>
       </c>
       <c r="J84" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="K84" t="s">
         <v>107</v>
       </c>
       <c r="L84" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="M84" t="s">
-        <v>130</v>
-      </c>
-      <c r="N84" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="O84" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P84">
         <v>4</v>
@@ -4929,13 +4920,13 @@
         <v>108</v>
       </c>
       <c r="G85" t="s">
-        <v>111</v>
-      </c>
-      <c r="H85">
-        <v>2007</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H85" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" t="s">
+        <v>56</v>
       </c>
       <c r="J85" t="s">
         <v>110</v>
@@ -4947,7 +4938,7 @@
         <v>108</v>
       </c>
       <c r="M85" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O85" t="s">
         <v>110</v>
@@ -4994,13 +4985,13 @@
         <v>108</v>
       </c>
       <c r="M86" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O86" t="s">
         <v>110</v>
       </c>
       <c r="P86">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5041,7 +5032,7 @@
         <v>108</v>
       </c>
       <c r="M87" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O87" t="s">
         <v>110</v>
@@ -5070,7 +5061,7 @@
         <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H88" t="s">
         <v>55</v>
@@ -5088,13 +5079,13 @@
         <v>108</v>
       </c>
       <c r="M88" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O88" t="s">
         <v>110</v>
       </c>
       <c r="P88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5117,7 +5108,7 @@
         <v>108</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H89" t="s">
         <v>55</v>
@@ -5135,13 +5126,13 @@
         <v>108</v>
       </c>
       <c r="M89" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O89" t="s">
         <v>110</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5164,7 +5155,7 @@
         <v>108</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H90" t="s">
         <v>55</v>
@@ -5182,13 +5173,13 @@
         <v>108</v>
       </c>
       <c r="M90" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O90" t="s">
         <v>110</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5211,7 +5202,7 @@
         <v>108</v>
       </c>
       <c r="G91" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H91" t="s">
         <v>55</v>
@@ -5229,13 +5220,13 @@
         <v>108</v>
       </c>
       <c r="M91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O91" t="s">
         <v>110</v>
       </c>
       <c r="P91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5258,7 +5249,7 @@
         <v>108</v>
       </c>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H92" t="s">
         <v>55</v>
@@ -5276,13 +5267,13 @@
         <v>108</v>
       </c>
       <c r="M92" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O92" t="s">
         <v>110</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5302,10 +5293,10 @@
         <v>115</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H93" t="s">
         <v>55</v>
@@ -5314,115 +5305,21 @@
         <v>56</v>
       </c>
       <c r="J93" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s">
         <v>107</v>
       </c>
       <c r="L93" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M93" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="O93" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>113</v>
-      </c>
-      <c r="B94" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" t="b">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" t="s">
-        <v>115</v>
-      </c>
-      <c r="F94" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" t="s">
-        <v>129</v>
-      </c>
-      <c r="H94" t="s">
-        <v>55</v>
-      </c>
-      <c r="I94" t="s">
-        <v>56</v>
-      </c>
-      <c r="J94" t="s">
-        <v>110</v>
-      </c>
-      <c r="K94" t="s">
-        <v>107</v>
-      </c>
-      <c r="L94" t="s">
-        <v>108</v>
-      </c>
-      <c r="M94" t="s">
-        <v>119</v>
-      </c>
-      <c r="O94" t="s">
-        <v>110</v>
-      </c>
-      <c r="P94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" t="s">
-        <v>115</v>
-      </c>
-      <c r="F95" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" t="s">
-        <v>130</v>
-      </c>
-      <c r="H95" t="s">
-        <v>55</v>
-      </c>
-      <c r="I95" t="s">
-        <v>56</v>
-      </c>
-      <c r="J95" t="s">
-        <v>132</v>
-      </c>
-      <c r="K95" t="s">
-        <v>107</v>
-      </c>
-      <c r="L95" t="s">
-        <v>131</v>
-      </c>
-      <c r="M95" t="s">
-        <v>130</v>
-      </c>
-      <c r="O95" t="s">
-        <v>132</v>
-      </c>
-      <c r="P95">
         <v>4</v>
       </c>
     </row>
